--- a/Template/Export/Sari_Cases_119.xlsx
+++ b/Template/Export/Sari_Cases_119.xlsx
@@ -60,9 +60,6 @@
     <t>last_name_2</t>
   </si>
   <si>
-    <t>date_of_birthday</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -90,18 +87,6 @@
     <t>work_market_live_animals</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>resort</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>urban_rural</t>
   </si>
   <si>
@@ -174,30 +159,12 @@
     <t>puerperium</t>
   </si>
   <si>
-    <t>quarter</t>
-  </si>
-  <si>
     <t>source_vaccine</t>
   </si>
   <si>
     <t>vaccine_influenza</t>
   </si>
   <si>
-    <t>first_dose</t>
-  </si>
-  <si>
-    <t>second_dose</t>
-  </si>
-  <si>
-    <t>Neumococo</t>
-  </si>
-  <si>
-    <t>Neumococo_date</t>
-  </si>
-  <si>
-    <t>Neumococo_dose</t>
-  </si>
-  <si>
     <t>antiviral</t>
   </si>
   <si>
@@ -210,9 +177,6 @@
     <t>risk_factor</t>
   </si>
   <si>
-    <t xml:space="preserve"> chronic_cardiopathy                                     </t>
-  </si>
-  <si>
     <t>diabetes</t>
   </si>
   <si>
@@ -231,9 +195,6 @@
     <t>chronic_renal</t>
   </si>
   <si>
-    <t>inmuno</t>
-  </si>
-  <si>
     <t>cerebral_palsy</t>
   </si>
   <si>
@@ -258,9 +219,6 @@
     <t>prematurity</t>
   </si>
   <si>
-    <t>LBW</t>
-  </si>
-  <si>
     <t xml:space="preserve">lack_of_breastfeeding </t>
   </si>
   <si>
@@ -297,18 +255,9 @@
     <t>cough</t>
   </si>
   <si>
-    <t>dif_breathing</t>
-  </si>
-  <si>
     <t>headache</t>
   </si>
   <si>
-    <t>eruption</t>
-  </si>
-  <si>
-    <t>eruption_location</t>
-  </si>
-  <si>
     <t>muscle_pain</t>
   </si>
   <si>
@@ -339,12 +288,6 @@
     <t>rhinitis</t>
   </si>
   <si>
-    <t>acute_diarrhea</t>
-  </si>
-  <si>
-    <t>chronic_diarrhea</t>
-  </si>
-  <si>
     <t>dizziness</t>
   </si>
   <si>
@@ -360,12 +303,6 @@
     <t>lymphadenopathy</t>
   </si>
   <si>
-    <t>discomfort</t>
-  </si>
-  <si>
-    <t>sickness</t>
-  </si>
-  <si>
     <t>stiff_neck</t>
   </si>
   <si>
@@ -390,9 +327,6 @@
     <t>description_other</t>
   </si>
   <si>
-    <t>salon</t>
-  </si>
-  <si>
     <t>diag_adm_CIE10</t>
   </si>
   <si>
@@ -480,240 +414,6 @@
     <t>observations</t>
   </si>
   <si>
-    <t>Res_End</t>
-  </si>
-  <si>
-    <t>Res_End_Virus</t>
-  </si>
-  <si>
-    <t>Res_End_Subtype</t>
-  </si>
-  <si>
-    <t>Res_End_Linaje</t>
-  </si>
-  <si>
-    <t>Res_End_2</t>
-  </si>
-  <si>
-    <t>Res_End_Virus_2</t>
-  </si>
-  <si>
-    <t>Res_End_Subtipo_2</t>
-  </si>
-  <si>
-    <t>Res_End_Linaje_2</t>
-  </si>
-  <si>
-    <t>Res_End_3</t>
-  </si>
-  <si>
-    <t>Res_End_Virus_3</t>
-  </si>
-  <si>
-    <t>Res_End_Subtype_3</t>
-  </si>
-  <si>
-    <t>Res_End_Lineage_3</t>
-  </si>
-  <si>
-    <t>Lab_process_1</t>
-  </si>
-  <si>
-    <t>Processed_process_1</t>
-  </si>
-  <si>
-    <t>Sample_number_process_1</t>
-  </si>
-  <si>
-    <t>Observations_process_1</t>
-  </si>
-  <si>
-    <t>Start_process date_1</t>
-  </si>
-  <si>
-    <t>End_process date_1</t>
-  </si>
-  <si>
-    <t>Type_process_1</t>
-  </si>
-  <si>
-    <t>Result_process_1</t>
-  </si>
-  <si>
-    <t>Virus_process_1</t>
-  </si>
-  <si>
-    <t>Subtype_process_1</t>
-  </si>
-  <si>
-    <t>Lineage_process_1</t>
-  </si>
-  <si>
-    <t>Lab_process_2</t>
-  </si>
-  <si>
-    <t>Processed_process_2</t>
-  </si>
-  <si>
-    <t>Sample_number_process_2</t>
-  </si>
-  <si>
-    <t>Observations_process_2</t>
-  </si>
-  <si>
-    <t>Start_process_date_2</t>
-  </si>
-  <si>
-    <t>End_process_date_2</t>
-  </si>
-  <si>
-    <t>Type_process_2</t>
-  </si>
-  <si>
-    <t>Result_process_2</t>
-  </si>
-  <si>
-    <t>Virus_process_2</t>
-  </si>
-  <si>
-    <t>Subtype_process_2</t>
-  </si>
-  <si>
-    <t>Lineage_process_2</t>
-  </si>
-  <si>
-    <t>Lab_process_3</t>
-  </si>
-  <si>
-    <t>Processed_process_3</t>
-  </si>
-  <si>
-    <t>Sample_number_process_3</t>
-  </si>
-  <si>
-    <t>Observations_process_3</t>
-  </si>
-  <si>
-    <t>Start_process date_3</t>
-  </si>
-  <si>
-    <t>End_process_date_3</t>
-  </si>
-  <si>
-    <t>Type_process_3</t>
-  </si>
-  <si>
-    <t>Result_process_3</t>
-  </si>
-  <si>
-    <t>Virus_process_3</t>
-  </si>
-  <si>
-    <t>Subtype_process_3</t>
-  </si>
-  <si>
-    <t>Lineage_process_3</t>
-  </si>
-  <si>
-    <t>Lab_process_4</t>
-  </si>
-  <si>
-    <t>Processed_process_4</t>
-  </si>
-  <si>
-    <t>Sample_number_process_4</t>
-  </si>
-  <si>
-    <t>Observations_process_4</t>
-  </si>
-  <si>
-    <t>Start_process date_4</t>
-  </si>
-  <si>
-    <t>End_process_date_4</t>
-  </si>
-  <si>
-    <t>Type_process_4</t>
-  </si>
-  <si>
-    <t>Result_process_4</t>
-  </si>
-  <si>
-    <t>Virus_process_4</t>
-  </si>
-  <si>
-    <t>Subtype_process_4</t>
-  </si>
-  <si>
-    <t>Lineage_process_4</t>
-  </si>
-  <si>
-    <t>Lab_process_5</t>
-  </si>
-  <si>
-    <t>Processed_process_5</t>
-  </si>
-  <si>
-    <t>Sample_number_process_5</t>
-  </si>
-  <si>
-    <t>Observations_process_5</t>
-  </si>
-  <si>
-    <t>Start_process date_5</t>
-  </si>
-  <si>
-    <t>End_process_date_5</t>
-  </si>
-  <si>
-    <t>Type_process_5</t>
-  </si>
-  <si>
-    <t>Result_process_5</t>
-  </si>
-  <si>
-    <t>Virus_process_5</t>
-  </si>
-  <si>
-    <t>Subtype_process_5</t>
-  </si>
-  <si>
-    <t>Lineage_process_5</t>
-  </si>
-  <si>
-    <t>Lab_process_6</t>
-  </si>
-  <si>
-    <t>Processed_process_6</t>
-  </si>
-  <si>
-    <t>Sample_number_process_6</t>
-  </si>
-  <si>
-    <t>Observations_process_6</t>
-  </si>
-  <si>
-    <t>Start_process date_6</t>
-  </si>
-  <si>
-    <t>End_process_date_6</t>
-  </si>
-  <si>
-    <t>Type_process_6</t>
-  </si>
-  <si>
-    <t>Result_process_6</t>
-  </si>
-  <si>
-    <t>Virus_process_6</t>
-  </si>
-  <si>
-    <t>Subtype_process_6</t>
-  </si>
-  <si>
-    <t>Lineage_process_6</t>
-  </si>
-  <si>
     <t>NPHL_Processed</t>
   </si>
   <si>
@@ -805,19 +505,320 @@
   </si>
   <si>
     <t>identification_test_nphl_3</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>trimester</t>
+  </si>
+  <si>
+    <t>first_dose_date</t>
+  </si>
+  <si>
+    <t>second_dose_date</t>
+  </si>
+  <si>
+    <t>neumococo_dose</t>
+  </si>
+  <si>
+    <t>neumococo_date</t>
+  </si>
+  <si>
+    <t>pneumococcal_vac.</t>
+  </si>
+  <si>
+    <t>chronic_heart_disease</t>
+  </si>
+  <si>
+    <t>immunological_treat_or_disease</t>
+  </si>
+  <si>
+    <t>low_birthweight</t>
+  </si>
+  <si>
+    <t>breathing_difficulty</t>
+  </si>
+  <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t>rash_location</t>
+  </si>
+  <si>
+    <t>acute_diarrhoea</t>
+  </si>
+  <si>
+    <t>chronic_diarrhoea</t>
+  </si>
+  <si>
+    <t>malaise</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>med_department</t>
+  </si>
+  <si>
+    <t>lab_process1</t>
+  </si>
+  <si>
+    <t>process1</t>
+  </si>
+  <si>
+    <t>sample_number_process1</t>
+  </si>
+  <si>
+    <t>process1_observations</t>
+  </si>
+  <si>
+    <t>start_date_process1</t>
+  </si>
+  <si>
+    <t>end_date_process1</t>
+  </si>
+  <si>
+    <t>process1_type</t>
+  </si>
+  <si>
+    <t>process1_result</t>
+  </si>
+  <si>
+    <t>process1_virus</t>
+  </si>
+  <si>
+    <t>process1_subtype</t>
+  </si>
+  <si>
+    <t>process1_lineage</t>
+  </si>
+  <si>
+    <t>lab_process2</t>
+  </si>
+  <si>
+    <t>process2</t>
+  </si>
+  <si>
+    <t>sample_number_process2</t>
+  </si>
+  <si>
+    <t>process2_observations</t>
+  </si>
+  <si>
+    <t>start_date_process2</t>
+  </si>
+  <si>
+    <t>end_date_process2</t>
+  </si>
+  <si>
+    <t>process2_type</t>
+  </si>
+  <si>
+    <t>process2_result</t>
+  </si>
+  <si>
+    <t>process2_virus</t>
+  </si>
+  <si>
+    <t>process2_subtype</t>
+  </si>
+  <si>
+    <t>process2_lineage</t>
+  </si>
+  <si>
+    <t>lab_process3</t>
+  </si>
+  <si>
+    <t>process3</t>
+  </si>
+  <si>
+    <t>sample_number_process3</t>
+  </si>
+  <si>
+    <t>process3_observations</t>
+  </si>
+  <si>
+    <t>start_date_process3</t>
+  </si>
+  <si>
+    <t>end_date_process3</t>
+  </si>
+  <si>
+    <t>process3_type</t>
+  </si>
+  <si>
+    <t>process3_result</t>
+  </si>
+  <si>
+    <t>process3_virus</t>
+  </si>
+  <si>
+    <t>process3_subtype</t>
+  </si>
+  <si>
+    <t>process3_lineage</t>
+  </si>
+  <si>
+    <t>lab_process4</t>
+  </si>
+  <si>
+    <t>process4</t>
+  </si>
+  <si>
+    <t>sample_number_process4</t>
+  </si>
+  <si>
+    <t>process4_observations</t>
+  </si>
+  <si>
+    <t>start_date_process4</t>
+  </si>
+  <si>
+    <t>end_date_process4</t>
+  </si>
+  <si>
+    <t>process4_type</t>
+  </si>
+  <si>
+    <t>process4_result</t>
+  </si>
+  <si>
+    <t>process4_virus</t>
+  </si>
+  <si>
+    <t>process4_subtype</t>
+  </si>
+  <si>
+    <t>process4_lineage</t>
+  </si>
+  <si>
+    <t>lab_process5</t>
+  </si>
+  <si>
+    <t>process5</t>
+  </si>
+  <si>
+    <t>sample_number_process5</t>
+  </si>
+  <si>
+    <t>process5_observations</t>
+  </si>
+  <si>
+    <t>start_date_process5</t>
+  </si>
+  <si>
+    <t>end_date_process5</t>
+  </si>
+  <si>
+    <t>process5_type</t>
+  </si>
+  <si>
+    <t>process5_result</t>
+  </si>
+  <si>
+    <t>process5_virus</t>
+  </si>
+  <si>
+    <t>process5_subtype</t>
+  </si>
+  <si>
+    <t>process5_lineage</t>
+  </si>
+  <si>
+    <t>lab_process6</t>
+  </si>
+  <si>
+    <t>process6</t>
+  </si>
+  <si>
+    <t>sample_number_process6</t>
+  </si>
+  <si>
+    <t>process6_observations</t>
+  </si>
+  <si>
+    <t>start_date_process6</t>
+  </si>
+  <si>
+    <t>end_date_process6</t>
+  </si>
+  <si>
+    <t>process6_type</t>
+  </si>
+  <si>
+    <t>process6_result</t>
+  </si>
+  <si>
+    <t>process6_virus</t>
+  </si>
+  <si>
+    <t>process6_subtype</t>
+  </si>
+  <si>
+    <t>process6_lineage</t>
+  </si>
+  <si>
+    <t>final_result</t>
+  </si>
+  <si>
+    <t>final_res_virus</t>
+  </si>
+  <si>
+    <t>final_res_subtype</t>
+  </si>
+  <si>
+    <t>final_res_lineage</t>
+  </si>
+  <si>
+    <t>final_result2</t>
+  </si>
+  <si>
+    <t>final_res_virus2</t>
+  </si>
+  <si>
+    <t>final_res_subtype2</t>
+  </si>
+  <si>
+    <t>final_res_lineage2</t>
+  </si>
+  <si>
+    <t>final_result3</t>
+  </si>
+  <si>
+    <t>final_res_virus3</t>
+  </si>
+  <si>
+    <t>final_res_subtype3</t>
+  </si>
+  <si>
+    <t>final_res_lineage3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -836,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,6 +847,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -888,6 +901,9 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JB1"/>
+  <dimension ref="A1:JB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1221,11 +1237,11 @@
     <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="16.5703125" customWidth="1"/>
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -1250,26 +1266,26 @@
     <col min="49" max="49" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="17" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26" customWidth="1"/>
+    <col min="64" max="64" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1278,7 +1294,7 @@
     <col min="77" max="77" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1291,7 +1307,7 @@
     <col min="90" max="90" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="12" customWidth="1"/>
     <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="19" bestFit="1" customWidth="1"/>
@@ -1312,7 +1328,7 @@
     <col min="111" max="111" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.5703125" customWidth="1"/>
     <col min="115" max="115" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1322,7 +1338,7 @@
     <col min="121" max="121" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="15.42578125" customWidth="1"/>
     <col min="126" max="126" width="14.5703125" style="11" customWidth="1"/>
     <col min="127" max="127" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1350,34 +1366,34 @@
     <col min="149" max="149" width="20" style="11" customWidth="1"/>
     <col min="150" max="150" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="13.7109375" style="11" customWidth="1"/>
-    <col min="153" max="153" width="19" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="16.28515625" style="1" customWidth="1"/>
-    <col min="157" max="157" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="17" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="19.5703125" customWidth="1"/>
+    <col min="152" max="152" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="14.7109375" style="9" customWidth="1"/>
+    <col min="155" max="155" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="15.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="20" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="20.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="182" max="182" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
@@ -1506,752 +1522,823 @@
         <v>12</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AX1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AY1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="BB1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="BC1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BI1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BO1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BP1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BR1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BV1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BW1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BX1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BY1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CI1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="12" t="s">
+      <c r="CK1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="12" t="s">
+      <c r="CL1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="12" t="s">
+      <c r="CM1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CP1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CQ1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CR1" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="CS1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CT1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CU1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CV1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CW1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CX1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CY1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="14" t="s">
+      <c r="CZ1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="DA1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="DB1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="DC1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="DD1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="DE1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="12" t="s">
+      <c r="DF1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="DG1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="DH1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="12" t="s">
+      <c r="DI1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="12" t="s">
+      <c r="DJ1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="DK1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="DL1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="12" t="s">
+      <c r="DM1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="12" t="s">
+      <c r="DN1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="12" t="s">
+      <c r="DO1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="12" t="s">
+      <c r="DP1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="12" t="s">
+      <c r="DQ1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="12" t="s">
+      <c r="DR1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="12" t="s">
+      <c r="DS1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="12" t="s">
+      <c r="DT1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DU1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="12" t="s">
+      <c r="DV1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="12" t="s">
+      <c r="DW1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="12" t="s">
+      <c r="DX1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="12" t="s">
+      <c r="DY1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="12" t="s">
+      <c r="DZ1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="12" t="s">
+      <c r="EA1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="12" t="s">
+      <c r="EB1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="12" t="s">
+      <c r="EC1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="12" t="s">
+      <c r="ED1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="12" t="s">
+      <c r="EE1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="12" t="s">
+      <c r="EF1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="12" t="s">
+      <c r="EG1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="12" t="s">
+      <c r="EH1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="12" t="s">
+      <c r="EI1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="12" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="12" t="s">
+      <c r="EK1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="12" t="s">
+      <c r="EL1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="12" t="s">
+      <c r="EM1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="12" t="s">
+      <c r="EN1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="12" t="s">
+      <c r="EO1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="EQ1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="14" t="s">
+      <c r="ER1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="ES1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="14" t="s">
+      <c r="ET1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="12" t="s">
+      <c r="EU1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="15" t="s">
+      <c r="EV1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="14" t="s">
+      <c r="EW1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EX1" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="EY1" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="EZ1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="FA1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="FB1" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="FC1" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="FD1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="FE1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="FF1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="FG1" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH1" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="FI1" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="FJ1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="FL1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="FM1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="FN1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="FO1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FP1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="FQ1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="FS1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="FU1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FV1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FW1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FY1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="FZ1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GA1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GB1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="GC1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GD1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="GE1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="GG1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="GH1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="GI1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="GJ1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="GK1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="GL1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="GM1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="GN1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GO1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="GP1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="GQ1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="GR1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="GS1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="GT1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="GU1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="GV1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="GW1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="GX1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="GY1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="GZ1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="HA1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="HB1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="HC1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="HD1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HE1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HF1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="HG1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="HH1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HI1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HJ1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="HK1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="HL1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="HM1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="HN1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="HO1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="HP1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="HQ1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="HR1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HS1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="HT1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="HU1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="HV1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="HW1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="HX1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="14" t="s">
+      <c r="HY1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="HZ1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="IA1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="8" t="s">
+      <c r="IB1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="8" t="s">
+      <c r="IC1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="ID1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="IE1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="IF1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="IG1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="14" t="s">
+      <c r="IH1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="II1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="14" t="s">
+      <c r="IJ1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="IK1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="IL1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="14" t="s">
+      <c r="IM1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="IN1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="8" t="s">
+      <c r="IO1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="IP1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="IQ1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="8" t="s">
+      <c r="IR1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="IS1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="IT1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="IU1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="IV1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="IW1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="IX1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="IY1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="IZ1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="JA1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="JB1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" s="2" t="s">
-        <v>261</v>
-      </c>
+    </row>
+    <row r="3" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="FD3" s="2"/>
+      <c r="FE3" s="2"/>
+    </row>
+    <row r="6" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="FK6" s="1"/>
+      <c r="FL6" s="1"/>
+      <c r="FM6" s="1"/>
+      <c r="FN6" s="1"/>
+      <c r="FO6" s="1"/>
+      <c r="FP6" s="1"/>
+      <c r="FQ6" s="1"/>
+      <c r="FR6" s="1"/>
+      <c r="FS6" s="1"/>
+      <c r="FT6" s="1"/>
+      <c r="FU6" s="1"/>
+      <c r="FV6" s="1"/>
+      <c r="FW6" s="1"/>
+      <c r="FX6" s="1"/>
+      <c r="FY6" s="1"/>
+      <c r="FZ6" s="1"/>
+      <c r="GA6" s="1"/>
+      <c r="GB6" s="1"/>
+      <c r="GC6" s="1"/>
+      <c r="GD6" s="1"/>
+      <c r="GE6" s="1"/>
+      <c r="GF6" s="1"/>
+      <c r="GG6" s="1"/>
+      <c r="GH6" s="1"/>
+      <c r="GI6" s="1"/>
+      <c r="GJ6" s="1"/>
+      <c r="GK6" s="1"/>
+      <c r="GL6" s="1"/>
+      <c r="GM6" s="1"/>
+      <c r="GN6" s="1"/>
+      <c r="GO6" s="1"/>
+      <c r="GP6" s="1"/>
+      <c r="GQ6" s="1"/>
+      <c r="GR6" s="1"/>
+      <c r="GS6" s="1"/>
+      <c r="GT6" s="1"/>
+      <c r="GU6" s="1"/>
+      <c r="GV6" s="1"/>
+      <c r="GW6" s="1"/>
+      <c r="GX6" s="1"/>
+      <c r="GY6" s="1"/>
+      <c r="GZ6" s="1"/>
+      <c r="HA6" s="1"/>
+      <c r="HB6" s="1"/>
+      <c r="HC6" s="1"/>
+      <c r="HD6" s="1"/>
+      <c r="HE6" s="1"/>
+      <c r="HF6" s="1"/>
+      <c r="HG6" s="1"/>
+      <c r="HH6" s="1"/>
+      <c r="HI6" s="1"/>
+      <c r="HJ6" s="1"/>
+      <c r="HK6" s="1"/>
+      <c r="HL6" s="1"/>
+      <c r="HM6" s="1"/>
+      <c r="HN6" s="1"/>
+      <c r="HO6" s="1"/>
+      <c r="HP6" s="1"/>
+      <c r="HQ6" s="1"/>
+      <c r="HR6" s="1"/>
+      <c r="HS6" s="1"/>
+      <c r="HT6" s="1"/>
+      <c r="HU6" s="1"/>
+      <c r="HV6" s="1"/>
+      <c r="HW6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_119.xlsx
+++ b/Template/Export/Sari_Cases_119.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>ID</t>
   </si>
@@ -805,20 +805,28 @@
   </si>
   <si>
     <t>final_res_lineage3</t>
+  </si>
+  <si>
+    <t>genetic_group</t>
+  </si>
+  <si>
+    <t>genetic_group2</t>
+  </si>
+  <si>
+    <t>genetic_group3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -886,23 +894,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JB6"/>
+  <dimension ref="A1:JE6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1372,116 +1380,119 @@
     <col min="155" max="155" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="157" max="157" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="20" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="17" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="18.5703125" style="11" customWidth="1"/>
-    <col min="193" max="193" width="18.140625" style="11" customWidth="1"/>
-    <col min="194" max="194" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="17" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="17" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="17" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="19.85546875" customWidth="1"/>
-    <col min="234" max="234" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="19.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="20" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="17" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="18.5703125" style="11" customWidth="1"/>
+    <col min="196" max="196" width="18.140625" style="11" customWidth="1"/>
+    <col min="197" max="197" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="17" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="17" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="17" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="19.85546875" customWidth="1"/>
+    <col min="237" max="237" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="22.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="22.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="23.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="23.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="24" customWidth="1"/>
+    <col min="259" max="259" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="265" max="266" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1953,330 +1964,337 @@
       <c r="FA1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="FB1" s="19" t="s">
+      <c r="FB1" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="FC1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="FC1" s="19" t="s">
+      <c r="FD1" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="FD1" s="19" t="s">
+      <c r="FE1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="FE1" s="19" t="s">
+      <c r="FF1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="FF1" s="17" t="s">
+      <c r="FG1" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="FH1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="FG1" s="17" t="s">
+      <c r="FI1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="FH1" s="17" t="s">
+      <c r="FJ1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="FI1" s="17" t="s">
+      <c r="FK1" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FL1" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="FM1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="FN1" s="18" t="s">
+      <c r="FQ1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="FY1" s="18" t="s">
+      <c r="GB1" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="GJ1" s="18" t="s">
+      <c r="GM1" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GP1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GR1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GS1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GT1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="GU1" s="18" t="s">
+      <c r="GX1" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="HA1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HC1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HF1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="HF1" s="18" t="s">
+      <c r="HI1" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HL1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HM1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HN1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HS1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="HQ1" s="18" t="s">
+      <c r="HT1" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HV1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HW1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HY1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="HX1" s="13" t="s">
+      <c r="IA1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="HY1" s="13" t="s">
+      <c r="IB1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="HZ1" s="13" t="s">
+      <c r="IC1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="IA1" s="8" t="s">
+      <c r="ID1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="IB1" s="13" t="s">
+      <c r="IE1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="IC1" s="13" t="s">
+      <c r="IF1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="ID1" s="8" t="s">
+      <c r="IG1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="IE1" s="13" t="s">
+      <c r="IH1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="IF1" s="13" t="s">
+      <c r="II1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="IG1" s="13" t="s">
+      <c r="IJ1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="IH1" s="13" t="s">
+      <c r="IK1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="II1" s="13" t="s">
+      <c r="IL1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="IJ1" s="13" t="s">
+      <c r="IM1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="IK1" s="13" t="s">
+      <c r="IN1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="IL1" s="13" t="s">
+      <c r="IO1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="IM1" s="13" t="s">
+      <c r="IP1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="IN1" s="13" t="s">
+      <c r="IQ1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="IO1" s="13" t="s">
+      <c r="IR1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="IP1" s="13" t="s">
+      <c r="IS1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="IQ1" s="13" t="s">
+      <c r="IT1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="IR1" s="13" t="s">
+      <c r="IU1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="IS1" s="13" t="s">
+      <c r="IV1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="IT1" s="13" t="s">
+      <c r="IW1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="IU1" s="13" t="s">
+      <c r="IX1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="IV1" s="13" t="s">
+      <c r="IY1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="IW1" s="2" t="s">
+      <c r="IZ1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="IX1" s="2" t="s">
+      <c r="JA1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="IY1" s="2" t="s">
+      <c r="JB1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="IZ1" s="2" t="s">
+      <c r="JC1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="JA1" s="2" t="s">
+      <c r="JD1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="JB1" s="2" t="s">
+      <c r="JE1" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="FD3" s="2"/>
+    <row r="3" spans="1:265" x14ac:dyDescent="0.25">
       <c r="FE3" s="2"/>
+      <c r="FF3" s="2"/>
+      <c r="FG3" s="2"/>
     </row>
-    <row r="6" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="FK6" s="1"/>
-      <c r="FL6" s="1"/>
-      <c r="FM6" s="1"/>
+    <row r="6" spans="1:265" x14ac:dyDescent="0.25">
       <c r="FN6" s="1"/>
       <c r="FO6" s="1"/>
       <c r="FP6" s="1"/>
@@ -2339,6 +2357,9 @@
       <c r="HU6" s="1"/>
       <c r="HV6" s="1"/>
       <c r="HW6" s="1"/>
+      <c r="HX6" s="1"/>
+      <c r="HY6" s="1"/>
+      <c r="HZ6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_119.xlsx
+++ b/Template/Export/Sari_Cases_119.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
@@ -814,12 +814,18 @@
   </si>
   <si>
     <t>genetic_group3</t>
+  </si>
+  <si>
+    <t>sample_temperature</t>
+  </si>
+  <si>
+    <t>ICU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -845,7 +851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,6 +876,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -883,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -912,6 +924,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JE6"/>
+  <dimension ref="A1:JH6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1353,146 +1370,149 @@
     <col min="128" max="128" width="18.85546875" style="11" customWidth="1"/>
     <col min="129" max="129" width="19" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="22" style="11" customWidth="1"/>
-    <col min="131" max="131" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.28515625" style="11" customWidth="1"/>
-    <col min="134" max="134" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.28515625" customWidth="1"/>
-    <col min="137" max="137" width="14.140625" customWidth="1"/>
-    <col min="138" max="138" width="11.85546875" customWidth="1"/>
-    <col min="139" max="139" width="14" customWidth="1"/>
-    <col min="140" max="140" width="12.140625" style="9" customWidth="1"/>
-    <col min="141" max="141" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="21.42578125" customWidth="1"/>
-    <col min="144" max="144" width="13.140625" style="11" customWidth="1"/>
-    <col min="145" max="145" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.140625" style="11" customWidth="1"/>
-    <col min="148" max="148" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="20" style="11" customWidth="1"/>
-    <col min="150" max="150" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="14.7109375" style="9" customWidth="1"/>
-    <col min="155" max="155" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="20" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="17" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="18.5703125" style="11" customWidth="1"/>
-    <col min="196" max="196" width="18.140625" style="11" customWidth="1"/>
-    <col min="197" max="197" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="17" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="17" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="17" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="19.85546875" customWidth="1"/>
-    <col min="237" max="237" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="19.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="6.42578125" style="11" customWidth="1"/>
+    <col min="132" max="132" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.28515625" style="11" customWidth="1"/>
+    <col min="135" max="135" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="11.28515625" customWidth="1"/>
+    <col min="138" max="138" width="14.140625" customWidth="1"/>
+    <col min="139" max="139" width="11.85546875" customWidth="1"/>
+    <col min="140" max="140" width="14" customWidth="1"/>
+    <col min="141" max="141" width="12.140625" style="9" customWidth="1"/>
+    <col min="142" max="142" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="21.42578125" customWidth="1"/>
+    <col min="145" max="145" width="13.140625" style="11" customWidth="1"/>
+    <col min="146" max="146" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.140625" style="11" customWidth="1"/>
+    <col min="149" max="149" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="20" style="11" customWidth="1"/>
+    <col min="151" max="151" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="16.140625" style="7" customWidth="1"/>
+    <col min="153" max="153" width="19" style="6" customWidth="1"/>
+    <col min="154" max="154" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.7109375" style="9" customWidth="1"/>
+    <col min="158" max="158" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="20" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="17" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="18.5703125" style="11" customWidth="1"/>
+    <col min="199" max="199" width="18.140625" style="11" customWidth="1"/>
+    <col min="200" max="200" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="17" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="17" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="17" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="19.85546875" customWidth="1"/>
+    <col min="240" max="240" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="22.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="253" max="253" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="23.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="23.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="265" max="266" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="24" customWidth="1"/>
+    <col min="262" max="262" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="268" max="269" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1883,421 +1903,427 @@
       <c r="DZ1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="EA1" s="14" t="s">
+      <c r="EA1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="EB1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EC1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="EC1" s="14" t="s">
+      <c r="ED1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EF1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="EF1" s="8" t="s">
+      <c r="EG1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="EG1" s="8" t="s">
+      <c r="EH1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="EL1" s="14" t="s">
+      <c r="EM1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="EN1" s="14" t="s">
+      <c r="EO1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="EQ1" s="14" t="s">
+      <c r="ER1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ES1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="ES1" s="8" t="s">
+      <c r="ET1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="EU1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EV1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="EW1" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="EX1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="EV1" s="8" t="s">
+      <c r="EY1" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EZ1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="EX1" s="17" t="s">
+      <c r="FA1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EY1" s="17" t="s">
+      <c r="FB1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EZ1" s="17" t="s">
+      <c r="FC1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="FA1" s="17" t="s">
+      <c r="FD1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="FB1" s="17" t="s">
+      <c r="FE1" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="FC1" s="19" t="s">
+      <c r="FF1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="FD1" s="19" t="s">
+      <c r="FG1" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="FE1" s="19" t="s">
+      <c r="FH1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="FF1" s="19" t="s">
+      <c r="FI1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="FG1" s="19" t="s">
+      <c r="FJ1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="FH1" s="17" t="s">
+      <c r="FK1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="FI1" s="17" t="s">
+      <c r="FL1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="FJ1" s="17" t="s">
+      <c r="FM1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="FK1" s="17" t="s">
+      <c r="FN1" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="FL1" s="17" t="s">
+      <c r="FO1" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="FQ1" s="18" t="s">
+      <c r="FT1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="GB1" s="18" t="s">
+      <c r="GE1" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GM1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="GM1" s="18" t="s">
+      <c r="GP1" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GR1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GS1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GT1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GX1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="GX1" s="18" t="s">
+      <c r="HA1" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HC1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HF1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HI1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="HI1" s="18" t="s">
+      <c r="HL1" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HM1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HN1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HS1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HT1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HV1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="HT1" s="18" t="s">
+      <c r="HW1" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HY1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="IA1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="IB1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="IC1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="IA1" s="13" t="s">
+      <c r="ID1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="IB1" s="13" t="s">
+      <c r="IE1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="IC1" s="13" t="s">
+      <c r="IF1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="ID1" s="8" t="s">
+      <c r="IG1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="IE1" s="13" t="s">
+      <c r="IH1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="IF1" s="13" t="s">
+      <c r="II1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="IG1" s="8" t="s">
+      <c r="IJ1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="IH1" s="13" t="s">
+      <c r="IK1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="II1" s="13" t="s">
+      <c r="IL1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="IJ1" s="13" t="s">
+      <c r="IM1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="IK1" s="13" t="s">
+      <c r="IN1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="IL1" s="13" t="s">
+      <c r="IO1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="IM1" s="13" t="s">
+      <c r="IP1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="IN1" s="13" t="s">
+      <c r="IQ1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="IO1" s="13" t="s">
+      <c r="IR1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="IP1" s="13" t="s">
+      <c r="IS1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="IQ1" s="13" t="s">
+      <c r="IT1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="IR1" s="13" t="s">
+      <c r="IU1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="IS1" s="13" t="s">
+      <c r="IV1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="IT1" s="13" t="s">
+      <c r="IW1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="IU1" s="13" t="s">
+      <c r="IX1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="IV1" s="13" t="s">
+      <c r="IY1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="IW1" s="13" t="s">
+      <c r="IZ1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="IX1" s="13" t="s">
+      <c r="JA1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="IY1" s="13" t="s">
+      <c r="JB1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="IZ1" s="2" t="s">
+      <c r="JC1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="JA1" s="2" t="s">
+      <c r="JD1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="JB1" s="2" t="s">
+      <c r="JE1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="JC1" s="2" t="s">
+      <c r="JF1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="JD1" s="2" t="s">
+      <c r="JG1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="JE1" s="2" t="s">
+      <c r="JH1" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="FE3" s="2"/>
-      <c r="FF3" s="2"/>
-      <c r="FG3" s="2"/>
+    <row r="3" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="FH3" s="2"/>
+      <c r="FI3" s="2"/>
+      <c r="FJ3" s="2"/>
     </row>
-    <row r="6" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="FN6" s="1"/>
-      <c r="FO6" s="1"/>
-      <c r="FP6" s="1"/>
+    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
       <c r="FQ6" s="1"/>
       <c r="FR6" s="1"/>
       <c r="FS6" s="1"/>
@@ -2360,6 +2386,9 @@
       <c r="HX6" s="1"/>
       <c r="HY6" s="1"/>
       <c r="HZ6" s="1"/>
+      <c r="IA6" s="1"/>
+      <c r="IB6" s="1"/>
+      <c r="IC6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_119.xlsx
+++ b/Template/Export/Sari_Cases_119.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB2D60-CEDF-4296-AC7F-700F677A1D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="270">
   <si>
     <t>ID</t>
   </si>
@@ -414,42 +423,6 @@
     <t>observations</t>
   </si>
   <si>
-    <t>NPHL_Processed</t>
-  </si>
-  <si>
-    <t>NPHL_NoProRenId</t>
-  </si>
-  <si>
-    <t>NPHL_NoProRen</t>
-  </si>
-  <si>
-    <t>Rec_Date_NPHL_2</t>
-  </si>
-  <si>
-    <t>Temp_NPHL_2</t>
-  </si>
-  <si>
-    <t>Observation_NPHL_2</t>
-  </si>
-  <si>
-    <t>Ship_Date_NPHL_2</t>
-  </si>
-  <si>
-    <t>NPHL_Processed_2</t>
-  </si>
-  <si>
-    <t>NPHL_NoProRenId_2</t>
-  </si>
-  <si>
-    <t>NPHL_NoProRen_2</t>
-  </si>
-  <si>
-    <t>Rec_Date_NPHL_3</t>
-  </si>
-  <si>
-    <t>Temp_NPHL_3</t>
-  </si>
-  <si>
     <t>Observation_NPHL_3</t>
   </si>
   <si>
@@ -820,18 +793,62 @@
   </si>
   <si>
     <t>ICU</t>
+  </si>
+  <si>
+    <t>reason_not_sampling</t>
+  </si>
+  <si>
+    <t>reason_not_sampling_other</t>
+  </si>
+  <si>
+    <t>why_not_processed_other</t>
+  </si>
+  <si>
+    <t>process1_other_virus</t>
+  </si>
+  <si>
+    <t>process1_other2_virus</t>
+  </si>
+  <si>
+    <t>process2_other_virus</t>
+  </si>
+  <si>
+    <t>process2_other2_virus</t>
+  </si>
+  <si>
+    <t>process3_other_virus</t>
+  </si>
+  <si>
+    <t>process3_other2_virus</t>
+  </si>
+  <si>
+    <t>process4_other_virus</t>
+  </si>
+  <si>
+    <t>process4_other2_virus</t>
+  </si>
+  <si>
+    <t>process5_other_virus</t>
+  </si>
+  <si>
+    <t>process5_other2_virus</t>
+  </si>
+  <si>
+    <t>process6_other_virus</t>
+  </si>
+  <si>
+    <t>process6_other2_virus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="169" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -895,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -918,17 +935,18 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,7 +965,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1022,6 +1040,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1057,6 +1092,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1232,15 +1284,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1382,137 +1434,134 @@
     <col min="140" max="140" width="14" customWidth="1"/>
     <col min="141" max="141" width="12.140625" style="9" customWidth="1"/>
     <col min="142" max="142" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="21.42578125" customWidth="1"/>
-    <col min="145" max="145" width="13.140625" style="11" customWidth="1"/>
-    <col min="146" max="146" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.140625" style="11" customWidth="1"/>
-    <col min="149" max="149" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="20" style="11" customWidth="1"/>
-    <col min="151" max="151" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="16.140625" style="7" customWidth="1"/>
-    <col min="153" max="153" width="19" style="6" customWidth="1"/>
-    <col min="154" max="154" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.7109375" style="9" customWidth="1"/>
-    <col min="158" max="158" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="20" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="17" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="18.5703125" style="11" customWidth="1"/>
-    <col min="199" max="199" width="18.140625" style="11" customWidth="1"/>
-    <col min="200" max="200" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="17" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="17" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="17" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="19.85546875" customWidth="1"/>
-    <col min="240" max="240" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="19.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="19.140625" style="1" customWidth="1"/>
+    <col min="144" max="144" width="24.5703125" style="1" customWidth="1"/>
+    <col min="145" max="145" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="21.42578125" customWidth="1"/>
+    <col min="147" max="147" width="13.140625" style="11" customWidth="1"/>
+    <col min="148" max="148" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="12.140625" style="11" customWidth="1"/>
+    <col min="151" max="151" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="20" style="11" customWidth="1"/>
+    <col min="153" max="153" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="16.140625" style="7" customWidth="1"/>
+    <col min="155" max="155" width="19" style="6" customWidth="1"/>
+    <col min="156" max="156" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="21.5703125" style="9" customWidth="1"/>
+    <col min="158" max="158" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="14.7109375" style="9" customWidth="1"/>
+    <col min="161" max="161" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="25.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="22.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="16.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="184" max="185" width="15.42578125" style="23" customWidth="1"/>
+    <col min="186" max="186" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="16.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="25.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="20.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="17" style="23" bestFit="1" customWidth="1"/>
+    <col min="197" max="198" width="17" style="23" customWidth="1"/>
+    <col min="199" max="199" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="20" style="24" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="210" max="211" width="14.7109375" style="23" customWidth="1"/>
+    <col min="212" max="212" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="20" style="24" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="223" max="224" width="14.7109375" style="23" customWidth="1"/>
+    <col min="225" max="225" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="20" style="24" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="236" max="237" width="14.7109375" style="23" customWidth="1"/>
+    <col min="238" max="238" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="20" style="24" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="249" max="250" width="14.7109375" style="23" customWidth="1"/>
+    <col min="251" max="251" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="22.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="23.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="23.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="268" max="269" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="24" customWidth="1"/>
+    <col min="265" max="265" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="271" max="272" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>13</v>
@@ -1583,16 +1632,16 @@
         <v>21</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="AB1" s="12" t="s">
         <v>22</v>
@@ -1667,7 +1716,7 @@
         <v>45</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="BA1" s="2" t="s">
         <v>46</v>
@@ -1676,19 +1725,19 @@
         <v>47</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="BH1" s="2" t="s">
         <v>48</v>
@@ -1703,7 +1752,7 @@
         <v>51</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="BM1" s="2" t="s">
         <v>52</v>
@@ -1724,7 +1773,7 @@
         <v>57</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="BT1" s="2" t="s">
         <v>58</v>
@@ -1751,7 +1800,7 @@
         <v>65</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="CC1" s="2" t="s">
         <v>66</v>
@@ -1790,16 +1839,16 @@
         <v>77</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="CP1" s="12" t="s">
         <v>78</v>
       </c>
       <c r="CQ1" s="12" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="CR1" s="12" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="CS1" s="12" t="s">
         <v>79</v>
@@ -1832,10 +1881,10 @@
         <v>88</v>
       </c>
       <c r="DC1" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="DD1" s="12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="DE1" s="12" t="s">
         <v>89</v>
@@ -1853,10 +1902,10 @@
         <v>93</v>
       </c>
       <c r="DJ1" s="12" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="DK1" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="DL1" s="12" t="s">
         <v>94</v>
@@ -1883,7 +1932,7 @@
         <v>101</v>
       </c>
       <c r="DT1" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="DU1" s="2" t="s">
         <v>102</v>
@@ -1903,8 +1952,8 @@
       <c r="DZ1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="EA1" s="22" t="s">
-        <v>266</v>
+      <c r="EA1" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="EB1" s="14" t="s">
         <v>108</v>
@@ -1939,456 +1988,432 @@
       <c r="EL1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="EM1" s="14" t="s">
+      <c r="EM1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="EO1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="EO1" s="14" t="s">
+      <c r="EQ1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ES1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="ER1" s="14" t="s">
+      <c r="ET1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="ET1" s="20" t="s">
+      <c r="EV1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="EU1" s="21" t="s">
+      <c r="EW1" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="EV1" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="EW1" s="21" t="s">
+      <c r="EX1" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="EY1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EZ1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="FA1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="FB1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="FC1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="FD1" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="FE1" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="FF1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="FG1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="FH1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="FI1" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="FJ1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="FK1" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="FL1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="FM1" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="FN1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="FO1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="FP1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="FQ1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="FR1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="FS1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="FT1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="FU1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="FV1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW1" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="FX1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="FY1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="FZ1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="GA1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="GB1" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="GC1" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="GD1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="GE1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="GF1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="GG1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="GH1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="GI1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="GJ1" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="GK1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="GL1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="GM1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="GN1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="GO1" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="GP1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="GQ1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="GR1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="GS1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="GT1" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="GU1" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="GV1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="GW1" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="GX1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="GY1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="GZ1" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="HA1" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="HB1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="HC1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="HD1" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="HE1" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="HF1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="HG1" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="HH1" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="HI1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="HJ1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="HK1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="HL1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="HM1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="HN1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="HO1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="HP1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="EX1" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="EY1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="EZ1" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="FA1" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="FB1" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="FC1" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="FD1" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="FE1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="FF1" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="FG1" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="FH1" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="FI1" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="FJ1" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="FK1" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="FL1" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="FM1" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="FN1" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="FO1" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="FP1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="FS1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="FT1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="FW1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="FX1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="FY1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="FZ1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="GA1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="GB1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="GC1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="GD1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="GE1" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="GF1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="GG1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="GH1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="GI1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GJ1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="GK1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="GL1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="GM1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="GN1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="GO1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="GP1" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="GQ1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="GR1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="GS1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="GT1" s="2" t="s">
+      <c r="HQ1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="HR1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="HS1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="HT1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="HU1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HV1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HW1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="HA1" s="18" t="s">
+      <c r="HX1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HY1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HZ1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="IA1" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="IB1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="IC1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="ID1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="IE1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="IF1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="IG1" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="IH1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="II1" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="IJ1" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="HL1" s="18" t="s">
+      <c r="IK1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="IL1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="IM1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="IN1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="IO1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="IP1" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="IQ1" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="IR1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="HR1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="HS1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="HT1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="HU1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="HV1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="HW1" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="HX1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="HY1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="HZ1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="IA1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="IB1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="IC1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="ID1" s="13" t="s">
+      <c r="IS1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="IE1" s="13" t="s">
+      <c r="IT1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="IF1" s="13" t="s">
+      <c r="IU1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="IG1" s="8" t="s">
+      <c r="IV1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="IH1" s="13" t="s">
+      <c r="IW1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="II1" s="13" t="s">
+      <c r="IX1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="IJ1" s="8" t="s">
+      <c r="IY1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="IK1" s="13" t="s">
+      <c r="IZ1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="IL1" s="13" t="s">
+      <c r="JA1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="IM1" s="13" t="s">
+      <c r="JB1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="IN1" s="13" t="s">
+      <c r="JC1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="IO1" s="13" t="s">
+      <c r="JD1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="IP1" s="13" t="s">
+      <c r="JE1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="IQ1" s="13" t="s">
+      <c r="JF1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="IR1" s="13" t="s">
+      <c r="JG1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="IS1" s="13" t="s">
+      <c r="JH1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="IT1" s="13" t="s">
+      <c r="JI1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="IU1" s="13" t="s">
+      <c r="JJ1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="IV1" s="13" t="s">
+      <c r="JK1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="IW1" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="IX1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="IY1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="IZ1" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="JA1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="JB1" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="JC1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="JD1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="JE1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="JF1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="JG1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="JH1" s="2" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="FH3" s="2"/>
-      <c r="FI3" s="2"/>
-      <c r="FJ3" s="2"/>
+    <row r="3" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="FK3" s="2"/>
+      <c r="FL3" s="2"/>
+      <c r="FM3" s="2"/>
     </row>
-    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="FQ6" s="1"/>
-      <c r="FR6" s="1"/>
-      <c r="FS6" s="1"/>
-      <c r="FT6" s="1"/>
-      <c r="FU6" s="1"/>
-      <c r="FV6" s="1"/>
-      <c r="FW6" s="1"/>
-      <c r="FX6" s="1"/>
-      <c r="FY6" s="1"/>
-      <c r="FZ6" s="1"/>
-      <c r="GA6" s="1"/>
-      <c r="GB6" s="1"/>
-      <c r="GC6" s="1"/>
-      <c r="GD6" s="1"/>
-      <c r="GE6" s="1"/>
-      <c r="GF6" s="1"/>
-      <c r="GG6" s="1"/>
-      <c r="GH6" s="1"/>
-      <c r="GI6" s="1"/>
-      <c r="GJ6" s="1"/>
-      <c r="GK6" s="1"/>
-      <c r="GL6" s="1"/>
-      <c r="GM6" s="1"/>
-      <c r="GN6" s="1"/>
-      <c r="GO6" s="1"/>
-      <c r="GP6" s="1"/>
-      <c r="GQ6" s="1"/>
-      <c r="GR6" s="1"/>
-      <c r="GS6" s="1"/>
-      <c r="GT6" s="1"/>
-      <c r="GU6" s="1"/>
-      <c r="GV6" s="1"/>
-      <c r="GW6" s="1"/>
-      <c r="GX6" s="1"/>
-      <c r="GY6" s="1"/>
-      <c r="GZ6" s="1"/>
-      <c r="HA6" s="1"/>
-      <c r="HB6" s="1"/>
-      <c r="HC6" s="1"/>
-      <c r="HD6" s="1"/>
-      <c r="HE6" s="1"/>
-      <c r="HF6" s="1"/>
-      <c r="HG6" s="1"/>
-      <c r="HH6" s="1"/>
-      <c r="HI6" s="1"/>
-      <c r="HJ6" s="1"/>
-      <c r="HK6" s="1"/>
-      <c r="HL6" s="1"/>
-      <c r="HM6" s="1"/>
-      <c r="HN6" s="1"/>
-      <c r="HO6" s="1"/>
-      <c r="HP6" s="1"/>
-      <c r="HQ6" s="1"/>
-      <c r="HR6" s="1"/>
-      <c r="HS6" s="1"/>
-      <c r="HT6" s="1"/>
-      <c r="HU6" s="1"/>
-      <c r="HV6" s="1"/>
-      <c r="HW6" s="1"/>
-      <c r="HX6" s="1"/>
-      <c r="HY6" s="1"/>
-      <c r="HZ6" s="1"/>
-      <c r="IA6" s="1"/>
-      <c r="IB6" s="1"/>
-      <c r="IC6" s="1"/>
+    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="FW5" s="25"/>
+      <c r="FX5" s="23"/>
+    </row>
+    <row r="6" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="FW6" s="25"/>
+      <c r="FX6" s="23"/>
+    </row>
+    <row r="7" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="FW7" s="25"/>
+      <c r="FX7" s="23"/>
+    </row>
+    <row r="8" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="FW8" s="25"/>
+      <c r="FX8" s="23"/>
+      <c r="GJ8" s="23"/>
+      <c r="GK8" s="23"/>
+      <c r="GW8" s="23"/>
+      <c r="GX8" s="23"/>
+      <c r="HJ8" s="23"/>
+      <c r="HK8" s="23"/>
+      <c r="HW8" s="23"/>
+      <c r="HX8" s="23"/>
+      <c r="IJ8" s="23"/>
+      <c r="IK8" s="23"/>
+    </row>
+    <row r="9" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="FW9" s="25"/>
+      <c r="FX9" s="23"/>
+    </row>
+    <row r="10" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="FW10" s="25"/>
+      <c r="FX10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_119.xlsx
+++ b/Template/Export/Sari_Cases_119.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB2D60-CEDF-4296-AC7F-700F677A1D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -838,20 +837,35 @@
   </si>
   <si>
     <t>process6_other2_virus</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinorrhoea </t>
+  </si>
+  <si>
+    <t>Odinophagia</t>
+  </si>
+  <si>
+    <t>Anosmy</t>
+  </si>
+  <si>
+    <t>Dysgeusia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="169" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +876,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -912,41 +941,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,7 +1026,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1040,23 +1101,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1092,23 +1136,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1284,28 +1311,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:JP10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="6" customWidth="1"/>
     <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1346,13 +1373,13 @@
     <col min="52" max="52" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="17" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="21.140625" bestFit="1" customWidth="1"/>
@@ -1378,1042 +1405,1062 @@
     <col min="84" max="84" width="16" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12" customWidth="1"/>
-    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="19" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="25" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.5703125" customWidth="1"/>
-    <col min="115" max="115" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="15.42578125" customWidth="1"/>
-    <col min="126" max="126" width="14.5703125" style="11" customWidth="1"/>
-    <col min="127" max="127" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.85546875" style="11" customWidth="1"/>
-    <col min="129" max="129" width="19" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="22" style="11" customWidth="1"/>
-    <col min="131" max="131" width="6.42578125" style="11" customWidth="1"/>
-    <col min="132" max="132" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.28515625" style="11" customWidth="1"/>
-    <col min="135" max="135" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="11.28515625" customWidth="1"/>
-    <col min="138" max="138" width="14.140625" customWidth="1"/>
-    <col min="139" max="139" width="11.85546875" customWidth="1"/>
-    <col min="140" max="140" width="14" customWidth="1"/>
-    <col min="141" max="141" width="12.140625" style="9" customWidth="1"/>
-    <col min="142" max="142" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="19.140625" style="1" customWidth="1"/>
-    <col min="144" max="144" width="24.5703125" style="1" customWidth="1"/>
-    <col min="145" max="145" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="21.42578125" customWidth="1"/>
-    <col min="147" max="147" width="13.140625" style="11" customWidth="1"/>
-    <col min="148" max="148" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="12.140625" style="11" customWidth="1"/>
-    <col min="151" max="151" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="20" style="11" customWidth="1"/>
-    <col min="153" max="153" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="16.140625" style="7" customWidth="1"/>
-    <col min="155" max="155" width="19" style="6" customWidth="1"/>
-    <col min="156" max="156" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="21.5703125" style="9" customWidth="1"/>
-    <col min="158" max="158" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14.7109375" style="9" customWidth="1"/>
-    <col min="161" max="161" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="7.28515625" style="1" customWidth="1"/>
+    <col min="92" max="92" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="21" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="26" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="8" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="20" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.42578125" customWidth="1"/>
+    <col min="131" max="131" width="14.5703125" style="6" customWidth="1"/>
+    <col min="132" max="132" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.85546875" style="6" customWidth="1"/>
+    <col min="134" max="134" width="19" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="22" style="6" customWidth="1"/>
+    <col min="136" max="136" width="6.42578125" style="6" customWidth="1"/>
+    <col min="137" max="137" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="18.28515625" style="6" customWidth="1"/>
+    <col min="140" max="140" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.28515625" customWidth="1"/>
+    <col min="143" max="143" width="14.140625" customWidth="1"/>
+    <col min="144" max="144" width="11.85546875" customWidth="1"/>
+    <col min="145" max="145" width="14" customWidth="1"/>
+    <col min="146" max="146" width="12.140625" style="5" customWidth="1"/>
+    <col min="147" max="147" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="19.140625" style="1" customWidth="1"/>
+    <col min="149" max="149" width="24.5703125" style="1" customWidth="1"/>
+    <col min="150" max="150" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="21.42578125" customWidth="1"/>
+    <col min="152" max="152" width="13.140625" style="6" customWidth="1"/>
+    <col min="153" max="153" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.140625" style="6" customWidth="1"/>
+    <col min="156" max="156" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="20" style="6" customWidth="1"/>
+    <col min="158" max="158" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="16.140625" style="4" customWidth="1"/>
+    <col min="160" max="160" width="19" style="3" customWidth="1"/>
+    <col min="161" max="161" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="21.5703125" style="5" customWidth="1"/>
+    <col min="163" max="163" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="14.7109375" style="5" customWidth="1"/>
+    <col min="166" max="166" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="10.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="25.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="22.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="15.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="16.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="184" max="185" width="15.42578125" style="23" customWidth="1"/>
-    <col min="186" max="186" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="16.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="25.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="20.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="15.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="197" max="198" width="17" style="23" customWidth="1"/>
-    <col min="199" max="199" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="20" style="24" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="210" max="211" width="14.7109375" style="23" customWidth="1"/>
-    <col min="212" max="212" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="20" style="24" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="223" max="224" width="14.7109375" style="23" customWidth="1"/>
-    <col min="225" max="225" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="20" style="24" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="236" max="237" width="14.7109375" style="23" customWidth="1"/>
-    <col min="238" max="238" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="20" style="24" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="249" max="250" width="14.7109375" style="23" customWidth="1"/>
-    <col min="251" max="251" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="23.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="271" max="272" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="24" customWidth="1"/>
+    <col min="173" max="173" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="189" max="190" width="15.42578125" style="7" customWidth="1"/>
+    <col min="191" max="191" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="202" max="203" width="17" style="7" customWidth="1"/>
+    <col min="204" max="204" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="215" max="216" width="14.7109375" style="7" customWidth="1"/>
+    <col min="217" max="217" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="228" max="229" width="14.7109375" style="7" customWidth="1"/>
+    <col min="230" max="230" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="242" width="14.7109375" style="7" customWidth="1"/>
+    <col min="243" max="243" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="254" max="255" width="14.7109375" style="7" customWidth="1"/>
+    <col min="256" max="256" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="276" max="277" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:276" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BI1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BW1" s="12" t="s">
+      <c r="BW1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BX1" s="12" t="s">
+      <c r="BX1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BY1" s="12" t="s">
+      <c r="BY1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="CI1" s="14" t="s">
+      <c r="CI1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="CM1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="CM1" s="12" t="s">
+      <c r="CN1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="CP1" s="12" t="s">
+      <c r="CQ1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="CQ1" s="12" t="s">
+      <c r="CR1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="CR1" s="12" t="s">
+      <c r="CS1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="CS1" s="12" t="s">
+      <c r="CT1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="CT1" s="12" t="s">
+      <c r="CU1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="CU1" s="12" t="s">
+      <c r="CV1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="CV1" s="12" t="s">
+      <c r="CW1" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="CX1" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="CY1" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="CZ1" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="DA1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="CW1" s="12" t="s">
+      <c r="DB1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="CX1" s="12" t="s">
+      <c r="DC1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="CY1" s="12" t="s">
+      <c r="DD1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" s="12" t="s">
+      <c r="DE1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="DA1" s="12" t="s">
+      <c r="DF1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="DB1" s="12" t="s">
+      <c r="DG1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="DC1" s="12" t="s">
+      <c r="DH1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="DD1" s="12" t="s">
+      <c r="DI1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="DE1" s="12" t="s">
+      <c r="DJ1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="DF1" s="12" t="s">
+      <c r="DK1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="DG1" s="12" t="s">
+      <c r="DL1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" s="12" t="s">
+      <c r="DM1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="DI1" s="12" t="s">
+      <c r="DN1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="DJ1" s="12" t="s">
+      <c r="DO1" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="DK1" s="12" t="s">
+      <c r="DP1" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="DL1" s="12" t="s">
+      <c r="DQ1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="DM1" s="12" t="s">
+      <c r="DR1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="DN1" s="12" t="s">
+      <c r="DS1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="DO1" s="12" t="s">
+      <c r="DT1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="DP1" s="12" t="s">
+      <c r="DU1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="DQ1" s="12" t="s">
+      <c r="DV1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="DR1" s="12" t="s">
+      <c r="DW1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="DS1" s="12" t="s">
+      <c r="DX1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DY1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DZ1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="DV1" s="14" t="s">
+      <c r="EA1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="EB1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="DX1" s="14" t="s">
+      <c r="EC1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="DY1" s="12" t="s">
+      <c r="ED1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="DZ1" s="15" t="s">
+      <c r="EE1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="EA1" s="20" t="s">
+      <c r="EF1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="EB1" s="14" t="s">
+      <c r="EG1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="EH1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="ED1" s="14" t="s">
+      <c r="EI1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EJ1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EK1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="EG1" s="8" t="s">
+      <c r="EL1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="EH1" s="8" t="s">
+      <c r="EM1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EN1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EO1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EP1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EQ1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="ER1" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="ES1" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="EO1" s="14" t="s">
+      <c r="ET1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EU1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="EQ1" s="14" t="s">
+      <c r="EV1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="EW1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="EX1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="ET1" s="14" t="s">
+      <c r="EY1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EZ1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="EV1" s="18" t="s">
+      <c r="FA1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="EW1" s="19" t="s">
+      <c r="FB1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="EX1" s="19" t="s">
+      <c r="FC1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EY1" s="19" t="s">
+      <c r="FD1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="EZ1" s="19" t="s">
+      <c r="FE1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="FA1" s="19" t="s">
+      <c r="FF1" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="FB1" s="18" t="s">
+      <c r="FG1" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="FC1" s="19" t="s">
+      <c r="FH1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="FD1" s="16" t="s">
+      <c r="FI1" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="FE1" s="16" t="s">
+      <c r="FJ1" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="FF1" s="16" t="s">
+      <c r="FK1" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="FG1" s="16" t="s">
+      <c r="FL1" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="FH1" s="16" t="s">
+      <c r="FM1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="FI1" s="17" t="s">
+      <c r="FN1" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="FJ1" s="17" t="s">
+      <c r="FO1" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="FK1" s="17" t="s">
+      <c r="FP1" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="FL1" s="17" t="s">
+      <c r="FQ1" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="FM1" s="17" t="s">
+      <c r="FR1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="FN1" s="16" t="s">
+      <c r="FS1" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="FO1" s="16" t="s">
+      <c r="FT1" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="FP1" s="16" t="s">
+      <c r="FU1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="FQ1" s="16" t="s">
+      <c r="FV1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="FR1" s="16" t="s">
+      <c r="FW1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="FS1" s="21" t="s">
+      <c r="FX1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="FT1" s="21" t="s">
+      <c r="FY1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="FU1" s="21" t="s">
+      <c r="FZ1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="FV1" s="21" t="s">
+      <c r="GA1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="FW1" s="22" t="s">
+      <c r="GB1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="FX1" s="21" t="s">
+      <c r="GC1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="FY1" s="21" t="s">
+      <c r="GD1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="FZ1" s="21" t="s">
+      <c r="GE1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="GA1" s="21" t="s">
+      <c r="GF1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="GB1" s="21" t="s">
+      <c r="GG1" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="GC1" s="21" t="s">
+      <c r="GH1" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="GD1" s="21" t="s">
+      <c r="GI1" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="GE1" s="21" t="s">
+      <c r="GJ1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="GF1" s="21" t="s">
+      <c r="GK1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="GG1" s="21" t="s">
+      <c r="GL1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="GH1" s="21" t="s">
+      <c r="GM1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="GI1" s="21" t="s">
+      <c r="GN1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="GJ1" s="22" t="s">
+      <c r="GO1" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="GK1" s="21" t="s">
+      <c r="GP1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="GL1" s="21" t="s">
+      <c r="GQ1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="GM1" s="21" t="s">
+      <c r="GR1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="GN1" s="21" t="s">
+      <c r="GS1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="GO1" s="21" t="s">
+      <c r="GT1" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="GP1" s="21" t="s">
+      <c r="GU1" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="GQ1" s="21" t="s">
+      <c r="GV1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="GR1" s="21" t="s">
+      <c r="GW1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="GS1" s="21" t="s">
+      <c r="GX1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="GT1" s="21" t="s">
+      <c r="GY1" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="GU1" s="21" t="s">
+      <c r="GZ1" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="GV1" s="21" t="s">
+      <c r="HA1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="GW1" s="22" t="s">
+      <c r="HB1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="GX1" s="21" t="s">
+      <c r="HC1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="GY1" s="21" t="s">
+      <c r="HD1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="GZ1" s="21" t="s">
+      <c r="HE1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="HA1" s="21" t="s">
+      <c r="HF1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="HB1" s="21" t="s">
+      <c r="HG1" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="HC1" s="21" t="s">
+      <c r="HH1" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="HD1" s="21" t="s">
+      <c r="HI1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="HE1" s="21" t="s">
+      <c r="HJ1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="HF1" s="21" t="s">
+      <c r="HK1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="HG1" s="21" t="s">
+      <c r="HL1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="HH1" s="21" t="s">
+      <c r="HM1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="HI1" s="21" t="s">
+      <c r="HN1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="HJ1" s="22" t="s">
+      <c r="HO1" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="HK1" s="21" t="s">
+      <c r="HP1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="HL1" s="21" t="s">
+      <c r="HQ1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="HM1" s="21" t="s">
+      <c r="HR1" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="HN1" s="21" t="s">
+      <c r="HS1" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="HO1" s="21" t="s">
+      <c r="HT1" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="HP1" s="21" t="s">
+      <c r="HU1" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="HQ1" s="21" t="s">
+      <c r="HV1" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="HR1" s="21" t="s">
+      <c r="HW1" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="HS1" s="21" t="s">
+      <c r="HX1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="HT1" s="21" t="s">
+      <c r="HY1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="HU1" s="21" t="s">
+      <c r="HZ1" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="HV1" s="21" t="s">
+      <c r="IA1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="HW1" s="22" t="s">
+      <c r="IB1" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="HX1" s="21" t="s">
+      <c r="IC1" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="HY1" s="21" t="s">
+      <c r="ID1" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="HZ1" s="21" t="s">
+      <c r="IE1" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="IA1" s="21" t="s">
+      <c r="IF1" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="IB1" s="21" t="s">
+      <c r="IG1" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="IC1" s="21" t="s">
+      <c r="IH1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="ID1" s="21" t="s">
+      <c r="II1" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="IE1" s="21" t="s">
+      <c r="IJ1" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="IF1" s="21" t="s">
+      <c r="IK1" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="IG1" s="21" t="s">
+      <c r="IL1" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="IH1" s="21" t="s">
+      <c r="IM1" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="II1" s="21" t="s">
+      <c r="IN1" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="IJ1" s="22" t="s">
+      <c r="IO1" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="IK1" s="21" t="s">
+      <c r="IP1" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="IL1" s="21" t="s">
+      <c r="IQ1" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="IM1" s="21" t="s">
+      <c r="IR1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="IN1" s="21" t="s">
+      <c r="IS1" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="IO1" s="21" t="s">
+      <c r="IT1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="IP1" s="21" t="s">
+      <c r="IU1" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="IQ1" s="21" t="s">
+      <c r="IV1" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="IR1" s="21" t="s">
+      <c r="IW1" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="IS1" s="13" t="s">
+      <c r="IX1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="IT1" s="13" t="s">
+      <c r="IY1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="IU1" s="13" t="s">
+      <c r="IZ1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="IV1" s="13" t="s">
+      <c r="JA1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="IW1" s="13" t="s">
+      <c r="JB1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="IX1" s="13" t="s">
+      <c r="JC1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="IY1" s="13" t="s">
+      <c r="JD1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="IZ1" s="13" t="s">
+      <c r="JE1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="JA1" s="13" t="s">
+      <c r="JF1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="JB1" s="13" t="s">
+      <c r="JG1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="JC1" s="13" t="s">
+      <c r="JH1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="JD1" s="13" t="s">
+      <c r="JI1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="JE1" s="13" t="s">
+      <c r="JJ1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="JF1" s="2" t="s">
+      <c r="JK1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="JG1" s="2" t="s">
+      <c r="JL1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="JH1" s="2" t="s">
+      <c r="JM1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="JI1" s="2" t="s">
+      <c r="JN1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JO1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="JK1" s="2" t="s">
+      <c r="JP1" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="FK3" s="2"/>
-      <c r="FL3" s="2"/>
-      <c r="FM3" s="2"/>
+    <row r="3" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="FP3" s="2"/>
+      <c r="FQ3" s="2"/>
+      <c r="FR3" s="2"/>
     </row>
-    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="FW5" s="25"/>
-      <c r="FX5" s="23"/>
+    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="GB5" s="9"/>
+      <c r="GC5" s="7"/>
     </row>
-    <row r="6" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="FW6" s="25"/>
-      <c r="FX6" s="23"/>
+    <row r="6" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="GB6" s="9"/>
+      <c r="GC6" s="7"/>
     </row>
-    <row r="7" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="FW7" s="25"/>
-      <c r="FX7" s="23"/>
+    <row r="7" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="GB7" s="9"/>
+      <c r="GC7" s="7"/>
     </row>
-    <row r="8" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="FW8" s="25"/>
-      <c r="FX8" s="23"/>
-      <c r="GJ8" s="23"/>
-      <c r="GK8" s="23"/>
-      <c r="GW8" s="23"/>
-      <c r="GX8" s="23"/>
-      <c r="HJ8" s="23"/>
-      <c r="HK8" s="23"/>
-      <c r="HW8" s="23"/>
-      <c r="HX8" s="23"/>
-      <c r="IJ8" s="23"/>
-      <c r="IK8" s="23"/>
+    <row r="8" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="GB8" s="9"/>
+      <c r="GC8" s="7"/>
+      <c r="GO8" s="7"/>
+      <c r="GP8" s="7"/>
+      <c r="HB8" s="7"/>
+      <c r="HC8" s="7"/>
+      <c r="HO8" s="7"/>
+      <c r="HP8" s="7"/>
+      <c r="IB8" s="7"/>
+      <c r="IC8" s="7"/>
+      <c r="IO8" s="7"/>
+      <c r="IP8" s="7"/>
     </row>
-    <row r="9" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="FW9" s="25"/>
-      <c r="FX9" s="23"/>
+    <row r="9" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="GB9" s="9"/>
+      <c r="GC9" s="7"/>
     </row>
-    <row r="10" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="FW10" s="25"/>
-      <c r="FX10" s="23"/>
+    <row r="10" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="GB10" s="9"/>
+      <c r="GC10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_119.xlsx
+++ b/Template/Export/Sari_Cases_119.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68FB4E-C86B-4942-9EA2-2286ED46D4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="279">
   <si>
     <t>ID</t>
   </si>
@@ -852,12 +853,24 @@
   </si>
   <si>
     <t>Dysgeusia</t>
+  </si>
+  <si>
+    <t>condition_discharge_evolution</t>
+  </si>
+  <si>
+    <t>condition_discharge_date_evolution</t>
+  </si>
+  <si>
+    <t>condition_discharge_other_evolution</t>
+  </si>
+  <si>
+    <t>death_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -897,7 +910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,6 +941,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -941,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1008,6 +1027,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,7 +1049,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1101,6 +1124,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1136,6 +1176,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1311,15 +1368,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JT10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1460,140 +1517,144 @@
     <col min="139" max="139" width="18.28515625" style="6" customWidth="1"/>
     <col min="140" max="140" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.28515625" customWidth="1"/>
-    <col min="143" max="143" width="14.140625" customWidth="1"/>
-    <col min="144" max="144" width="11.85546875" customWidth="1"/>
-    <col min="145" max="145" width="14" customWidth="1"/>
-    <col min="146" max="146" width="12.140625" style="5" customWidth="1"/>
-    <col min="147" max="147" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="19.140625" style="1" customWidth="1"/>
-    <col min="149" max="149" width="24.5703125" style="1" customWidth="1"/>
-    <col min="150" max="150" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="21.42578125" customWidth="1"/>
-    <col min="152" max="152" width="13.140625" style="6" customWidth="1"/>
-    <col min="153" max="153" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.140625" style="6" customWidth="1"/>
-    <col min="156" max="156" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="20" style="6" customWidth="1"/>
-    <col min="158" max="158" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="16.140625" style="4" customWidth="1"/>
-    <col min="160" max="160" width="19" style="3" customWidth="1"/>
-    <col min="161" max="161" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="21.5703125" style="5" customWidth="1"/>
-    <col min="163" max="163" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="14.7109375" style="5" customWidth="1"/>
-    <col min="166" max="166" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="189" max="190" width="15.42578125" style="7" customWidth="1"/>
-    <col min="191" max="191" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="20.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="202" max="203" width="17" style="7" customWidth="1"/>
-    <col min="204" max="204" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="215" max="216" width="14.7109375" style="7" customWidth="1"/>
-    <col min="217" max="217" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="228" max="229" width="14.7109375" style="7" customWidth="1"/>
-    <col min="230" max="230" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="242" width="14.7109375" style="7" customWidth="1"/>
-    <col min="243" max="243" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="254" max="255" width="14.7109375" style="7" customWidth="1"/>
-    <col min="256" max="256" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="276" max="277" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="24" customWidth="1"/>
+    <col min="142" max="142" width="32.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="38.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="39.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="13.85546875" style="29" customWidth="1"/>
+    <col min="146" max="146" width="11.28515625" customWidth="1"/>
+    <col min="147" max="147" width="14.140625" customWidth="1"/>
+    <col min="148" max="148" width="11.85546875" customWidth="1"/>
+    <col min="149" max="149" width="14" customWidth="1"/>
+    <col min="150" max="150" width="12.140625" style="5" customWidth="1"/>
+    <col min="151" max="151" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="19.140625" style="1" customWidth="1"/>
+    <col min="153" max="153" width="24.5703125" style="1" customWidth="1"/>
+    <col min="154" max="154" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="21.42578125" customWidth="1"/>
+    <col min="156" max="156" width="13.140625" style="6" customWidth="1"/>
+    <col min="157" max="157" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.140625" style="6" customWidth="1"/>
+    <col min="160" max="160" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="20" style="6" customWidth="1"/>
+    <col min="162" max="162" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="16.140625" style="4" customWidth="1"/>
+    <col min="164" max="164" width="19" style="3" customWidth="1"/>
+    <col min="165" max="165" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="21.5703125" style="5" customWidth="1"/>
+    <col min="167" max="167" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.7109375" style="5" customWidth="1"/>
+    <col min="170" max="170" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="193" max="194" width="15.42578125" style="7" customWidth="1"/>
+    <col min="195" max="195" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="206" max="207" width="17" style="7" customWidth="1"/>
+    <col min="208" max="208" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="219" max="220" width="14.7109375" style="7" customWidth="1"/>
+    <col min="221" max="221" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="232" max="233" width="14.7109375" style="7" customWidth="1"/>
+    <col min="234" max="234" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="246" width="14.7109375" style="7" customWidth="1"/>
+    <col min="247" max="247" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="259" width="14.7109375" style="7" customWidth="1"/>
+    <col min="260" max="260" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="280" max="281" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:276" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:280" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2017,450 +2078,462 @@
       <c r="EK1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="EL1" s="11" t="s">
+      <c r="EL1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="EM1" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="EN1" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="EO1" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="EP1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="EM1" s="11" t="s">
+      <c r="EQ1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="EN1" s="13" t="s">
+      <c r="ER1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="EO1" s="13" t="s">
+      <c r="ES1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="EP1" s="13" t="s">
+      <c r="ET1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="EQ1" s="10" t="s">
+      <c r="EU1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="ER1" s="10" t="s">
+      <c r="EV1" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="ES1" s="10" t="s">
+      <c r="EW1" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="ET1" s="17" t="s">
+      <c r="EX1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="EU1" s="10" t="s">
+      <c r="EY1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="EV1" s="17" t="s">
+      <c r="EZ1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="EW1" s="10" t="s">
+      <c r="FA1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="EX1" s="10" t="s">
+      <c r="FB1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="EY1" s="17" t="s">
+      <c r="FC1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="EZ1" s="13" t="s">
+      <c r="FD1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="FA1" s="20" t="s">
+      <c r="FE1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="FB1" s="21" t="s">
+      <c r="FF1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="FC1" s="21" t="s">
+      <c r="FG1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="FD1" s="21" t="s">
+      <c r="FH1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="FE1" s="21" t="s">
+      <c r="FI1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="FF1" s="21" t="s">
+      <c r="FJ1" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="FG1" s="20" t="s">
+      <c r="FK1" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="FH1" s="21" t="s">
+      <c r="FL1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="FI1" s="22" t="s">
+      <c r="FM1" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="FJ1" s="22" t="s">
+      <c r="FN1" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="FK1" s="22" t="s">
+      <c r="FO1" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="FL1" s="22" t="s">
+      <c r="FP1" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="FM1" s="22" t="s">
+      <c r="FQ1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="FN1" s="23" t="s">
+      <c r="FR1" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="FO1" s="23" t="s">
+      <c r="FS1" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="FP1" s="23" t="s">
+      <c r="FT1" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="FQ1" s="23" t="s">
+      <c r="FU1" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="FR1" s="23" t="s">
+      <c r="FV1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="FS1" s="22" t="s">
+      <c r="FW1" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="FT1" s="22" t="s">
+      <c r="FX1" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="FU1" s="22" t="s">
+      <c r="FY1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="FV1" s="22" t="s">
+      <c r="FZ1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="FW1" s="22" t="s">
+      <c r="GA1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="FX1" s="24" t="s">
+      <c r="GB1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="FY1" s="24" t="s">
+      <c r="GC1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="FZ1" s="24" t="s">
+      <c r="GD1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="GA1" s="24" t="s">
+      <c r="GE1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="GB1" s="25" t="s">
+      <c r="GF1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="GC1" s="24" t="s">
+      <c r="GG1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="GD1" s="24" t="s">
+      <c r="GH1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="GE1" s="24" t="s">
+      <c r="GI1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="GF1" s="24" t="s">
+      <c r="GJ1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="GG1" s="24" t="s">
+      <c r="GK1" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="GH1" s="24" t="s">
+      <c r="GL1" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="GI1" s="24" t="s">
+      <c r="GM1" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="GJ1" s="24" t="s">
+      <c r="GN1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="GK1" s="24" t="s">
+      <c r="GO1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="GL1" s="24" t="s">
+      <c r="GP1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="GM1" s="24" t="s">
+      <c r="GQ1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="GN1" s="24" t="s">
+      <c r="GR1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="GO1" s="25" t="s">
+      <c r="GS1" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="GP1" s="24" t="s">
+      <c r="GT1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="GQ1" s="24" t="s">
+      <c r="GU1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="GR1" s="24" t="s">
+      <c r="GV1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="GS1" s="24" t="s">
+      <c r="GW1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="GT1" s="24" t="s">
+      <c r="GX1" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="GU1" s="24" t="s">
+      <c r="GY1" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="GV1" s="24" t="s">
+      <c r="GZ1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="GW1" s="24" t="s">
+      <c r="HA1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="GX1" s="24" t="s">
+      <c r="HB1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="GY1" s="24" t="s">
+      <c r="HC1" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="GZ1" s="24" t="s">
+      <c r="HD1" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="HA1" s="24" t="s">
+      <c r="HE1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="HB1" s="25" t="s">
+      <c r="HF1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="HC1" s="24" t="s">
+      <c r="HG1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="HD1" s="24" t="s">
+      <c r="HH1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="HE1" s="24" t="s">
+      <c r="HI1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="HF1" s="24" t="s">
+      <c r="HJ1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="HG1" s="24" t="s">
+      <c r="HK1" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="HH1" s="24" t="s">
+      <c r="HL1" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="HI1" s="24" t="s">
+      <c r="HM1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="HJ1" s="24" t="s">
+      <c r="HN1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="HK1" s="24" t="s">
+      <c r="HO1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="HL1" s="24" t="s">
+      <c r="HP1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="HM1" s="24" t="s">
+      <c r="HQ1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="HN1" s="24" t="s">
+      <c r="HR1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="HO1" s="25" t="s">
+      <c r="HS1" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="HP1" s="24" t="s">
+      <c r="HT1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="HQ1" s="24" t="s">
+      <c r="HU1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="HR1" s="24" t="s">
+      <c r="HV1" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="HS1" s="24" t="s">
+      <c r="HW1" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="HT1" s="24" t="s">
+      <c r="HX1" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="HU1" s="24" t="s">
+      <c r="HY1" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="HV1" s="24" t="s">
+      <c r="HZ1" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="HW1" s="24" t="s">
+      <c r="IA1" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="HX1" s="24" t="s">
+      <c r="IB1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="HY1" s="24" t="s">
+      <c r="IC1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="HZ1" s="24" t="s">
+      <c r="ID1" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="IA1" s="24" t="s">
+      <c r="IE1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="IB1" s="25" t="s">
+      <c r="IF1" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="IC1" s="24" t="s">
+      <c r="IG1" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="ID1" s="24" t="s">
+      <c r="IH1" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="IE1" s="24" t="s">
+      <c r="II1" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="IF1" s="24" t="s">
+      <c r="IJ1" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="IG1" s="24" t="s">
+      <c r="IK1" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="IH1" s="24" t="s">
+      <c r="IL1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="II1" s="24" t="s">
+      <c r="IM1" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="IJ1" s="24" t="s">
+      <c r="IN1" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="IK1" s="24" t="s">
+      <c r="IO1" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="IL1" s="24" t="s">
+      <c r="IP1" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="IM1" s="24" t="s">
+      <c r="IQ1" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="IN1" s="24" t="s">
+      <c r="IR1" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="IO1" s="25" t="s">
+      <c r="IS1" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="IP1" s="24" t="s">
+      <c r="IT1" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="IQ1" s="24" t="s">
+      <c r="IU1" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="IR1" s="24" t="s">
+      <c r="IV1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="IS1" s="24" t="s">
+      <c r="IW1" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="IT1" s="24" t="s">
+      <c r="IX1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="IU1" s="24" t="s">
+      <c r="IY1" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="IV1" s="24" t="s">
+      <c r="IZ1" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="IW1" s="24" t="s">
+      <c r="JA1" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="IX1" s="26" t="s">
+      <c r="JB1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="IY1" s="26" t="s">
+      <c r="JC1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="IZ1" s="26" t="s">
+      <c r="JD1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="JA1" s="26" t="s">
+      <c r="JE1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="JB1" s="26" t="s">
+      <c r="JF1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="JC1" s="26" t="s">
+      <c r="JG1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="JD1" s="26" t="s">
+      <c r="JH1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="JE1" s="26" t="s">
+      <c r="JI1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="JF1" s="26" t="s">
+      <c r="JJ1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="JG1" s="26" t="s">
+      <c r="JK1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="JH1" s="26" t="s">
+      <c r="JL1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="JI1" s="26" t="s">
+      <c r="JM1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="JJ1" s="26" t="s">
+      <c r="JN1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="JK1" s="10" t="s">
+      <c r="JO1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="JL1" s="10" t="s">
+      <c r="JP1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="JM1" s="10" t="s">
+      <c r="JQ1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="JN1" s="10" t="s">
+      <c r="JR1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="JO1" s="10" t="s">
+      <c r="JS1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="JP1" s="10" t="s">
+      <c r="JT1" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="FP3" s="2"/>
-      <c r="FQ3" s="2"/>
-      <c r="FR3" s="2"/>
+    <row r="3" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="FT3" s="2"/>
+      <c r="FU3" s="2"/>
+      <c r="FV3" s="2"/>
     </row>
-    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="GB5" s="9"/>
-      <c r="GC5" s="7"/>
+    <row r="5" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="GF5" s="9"/>
+      <c r="GG5" s="7"/>
     </row>
-    <row r="6" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="GB6" s="9"/>
-      <c r="GC6" s="7"/>
+    <row r="6" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="GF6" s="9"/>
+      <c r="GG6" s="7"/>
     </row>
-    <row r="7" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="GB7" s="9"/>
-      <c r="GC7" s="7"/>
+    <row r="7" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="GF7" s="9"/>
+      <c r="GG7" s="7"/>
     </row>
-    <row r="8" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="GB8" s="9"/>
-      <c r="GC8" s="7"/>
-      <c r="GO8" s="7"/>
-      <c r="GP8" s="7"/>
-      <c r="HB8" s="7"/>
-      <c r="HC8" s="7"/>
-      <c r="HO8" s="7"/>
-      <c r="HP8" s="7"/>
-      <c r="IB8" s="7"/>
-      <c r="IC8" s="7"/>
-      <c r="IO8" s="7"/>
-      <c r="IP8" s="7"/>
+    <row r="8" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="GF8" s="9"/>
+      <c r="GG8" s="7"/>
+      <c r="GS8" s="7"/>
+      <c r="GT8" s="7"/>
+      <c r="HF8" s="7"/>
+      <c r="HG8" s="7"/>
+      <c r="HS8" s="7"/>
+      <c r="HT8" s="7"/>
+      <c r="IF8" s="7"/>
+      <c r="IG8" s="7"/>
+      <c r="IS8" s="7"/>
+      <c r="IT8" s="7"/>
     </row>
-    <row r="9" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="GB9" s="9"/>
-      <c r="GC9" s="7"/>
+    <row r="9" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="GF9" s="9"/>
+      <c r="GG9" s="7"/>
     </row>
-    <row r="10" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="GB10" s="9"/>
-      <c r="GC10" s="7"/>
+    <row r="10" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="GF10" s="9"/>
+      <c r="GG10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
